--- a/biology/Zoologie/Louis_Joubin/Louis_Joubin.xlsx
+++ b/biology/Zoologie/Louis_Joubin/Louis_Joubin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Marie Adolphe Olivier Édouard Joubin, né le 27 février 1861 à Épinal et mort le 24 avril 1935 à Paris, est un zoologiste français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Marie Adolphe Olivier Édouard Joubin, né le 27 février 1861 à Épinal et mort le 24 avril 1935 à Paris, est un zoologiste français,.
 </t>
         </is>
       </c>
@@ -513,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Généalogie Joubin
-Olivier Joubin[3], époux de Françoise Hinault
-Olivier Joubin[4]
-Louis Marie Joubin[5], époux de Pauline Renée Feillé
+Olivier Joubin, époux de Françoise Hinault
+Olivier Joubin
+Louis Marie Joubin, époux de Pauline Renée Feillé
 Louis Joubin (1861-1935)
-Paul Joubin[6]
-Charles Joubin (1896-1928)[7]
+Paul Joubin
+Charles Joubin (1896-1928)
 René Joubin
-André Joubin[8], époux de Jeanne Reclus[9]
+André Joubin, époux de Jeanne Reclus
 Eve Joubin, épouse de Georges de Lenclos
 Victor, le père de Daniel Œhlert, et Pierre Crié, le père de Pauline et Olivier Joubin, grand-père de Louis Joubin, formaient un trio d'amis, habitant Laval et se réunissant souvent.
-Les sciences
-Assistant d’Henri de Lacaze-Duthiers (1821-1901), il dirige les laboratoires de Banyuls-sur-Mer en 1882 et de Roscoff en 1884.
-Il devient docteur ès-sciences en 1885 et ès-médecine en 1888 avec une thèse intitulée Recherches sur la morphologie comparée des glandes salivaires. Il commence alors à enseigner à l’université de Rennes. 
-En 1903, il remplace Edmond Perrier (1844-1921) à la chaire des mollusques, des vers et des zoophytes du Muséum national d'histoire naturelle. En 1906, le prince Albert Ier de Monaco (1848-1922) le charge de l’enseignement à l’Institut océanographique qu’il venait de créer. En 1917, la chaire du Muséum est divisée, il occupe celle consacrée aux seuls mollusques. Il entre à l’Académie des sciences en 1920. Tout en étant Directeur de l'Office scientifique et technique des pêches (plus souvent dit Office des Pêches et ultérieurement ISTPM) il préside une commission scientifique « chargée de l'étude internationale de toutes les questions qui concernent les coquillages, notamment les huîtres, leur nature et leurs maladies » à la demande du Conseil International pour l'Exploration de la Mer[10]. Il dirige l’Institut océanographie en 1930. Il est président de la Société zoologique de France en 1905. 
-Il prononce l’éloge du prince Albert Ier devant l’Académie des Sciences le 8 juillet 1922.
-Il prend sa retraite en 1935.
 </t>
         </is>
       </c>
@@ -556,10 +568,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les sciences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assistant d’Henri de Lacaze-Duthiers (1821-1901), il dirige les laboratoires de Banyuls-sur-Mer en 1882 et de Roscoff en 1884.
+Il devient docteur ès-sciences en 1885 et ès-médecine en 1888 avec une thèse intitulée Recherches sur la morphologie comparée des glandes salivaires. Il commence alors à enseigner à l’université de Rennes. 
+En 1903, il remplace Edmond Perrier (1844-1921) à la chaire des mollusques, des vers et des zoophytes du Muséum national d'histoire naturelle. En 1906, le prince Albert Ier de Monaco (1848-1922) le charge de l’enseignement à l’Institut océanographique qu’il venait de créer. En 1917, la chaire du Muséum est divisée, il occupe celle consacrée aux seuls mollusques. Il entre à l’Académie des sciences en 1920. Tout en étant Directeur de l'Office scientifique et technique des pêches (plus souvent dit Office des Pêches et ultérieurement ISTPM) il préside une commission scientifique « chargée de l'étude internationale de toutes les questions qui concernent les coquillages, notamment les huîtres, leur nature et leurs maladies » à la demande du Conseil International pour l'Exploration de la Mer. Il dirige l’Institut océanographie en 1930. Il est président de la Société zoologique de France en 1905. 
+Il prononce l’éloge du prince Albert Ier devant l’Académie des Sciences le 8 juillet 1922.
+Il prend sa retraite en 1935.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Joubin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Joubin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recherches sur l'anatomie des brachiopodes inarticulés. Suivi de Propositions données par la Faculté, Paris, Typ. A. Hennuyer, 1885 (lire en ligne)
 Les Némertiens (Société d'éditions scientifiques, Paris, 1894)
